--- a/outputs-r202/test-f__UBA1242.xlsx
+++ b/outputs-r202/test-f__UBA1242.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
     <t>Row</t>
   </si>
@@ -121,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -131,14 +131,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,195 +156,195 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.140625" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
     <col min="3" max="3" width="15.140625" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="14.5703125" customWidth="true"/>
-    <col min="6" max="6" width="14.5703125" customWidth="true"/>
-    <col min="7" max="7" width="13.7109375" customWidth="true"/>
-    <col min="8" max="8" width="13.7109375" customWidth="true"/>
-    <col min="9" max="9" width="13.7109375" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
-    <col min="11" max="11" width="14.5703125" customWidth="true"/>
-    <col min="12" max="12" width="14.5703125" customWidth="true"/>
-    <col min="13" max="13" width="14.5703125" customWidth="true"/>
-    <col min="14" max="14" width="14.5703125" customWidth="true"/>
-    <col min="15" max="15" width="14.5703125" customWidth="true"/>
-    <col min="16" max="16" width="14.5703125" customWidth="true"/>
+    <col min="4" max="4" width="15.5703125" customWidth="true"/>
+    <col min="5" max="5" width="15.5703125" customWidth="true"/>
+    <col min="6" max="6" width="15.5703125" customWidth="true"/>
+    <col min="7" max="7" width="15.5703125" customWidth="true"/>
+    <col min="8" max="8" width="15.5703125" customWidth="true"/>
+    <col min="9" max="9" width="15.5703125" customWidth="true"/>
+    <col min="10" max="10" width="15.5703125" customWidth="true"/>
+    <col min="11" max="11" width="15.5703125" customWidth="true"/>
+    <col min="12" max="12" width="15.5703125" customWidth="true"/>
+    <col min="13" max="13" width="15.5703125" customWidth="true"/>
+    <col min="14" max="14" width="15.5703125" customWidth="true"/>
+    <col min="15" max="15" width="15.5703125" customWidth="true"/>
+    <col min="16" max="16" width="15.5703125" customWidth="true"/>
     <col min="17" max="17" width="16.140625" customWidth="true"/>
     <col min="18" max="18" width="16.140625" customWidth="true"/>
     <col min="19" max="19" width="16.140625" customWidth="true"/>
     <col min="20" max="20" width="16.140625" customWidth="true"/>
-    <col min="21" max="21" width="15.140625" customWidth="true"/>
-    <col min="22" max="22" width="14.28515625" customWidth="true"/>
+    <col min="21" max="21" width="15.5703125" customWidth="true"/>
+    <col min="22" max="22" width="15.5703125" customWidth="true"/>
     <col min="23" max="23" width="14.28515625" customWidth="true"/>
     <col min="24" max="24" width="14.42578125" customWidth="true"/>
-    <col min="25" max="25" width="14.28515625" customWidth="true"/>
+    <col min="25" max="25" width="15.5703125" customWidth="true"/>
     <col min="26" max="26" width="10.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.038219377622217214</v>
+        <v>1.1838595307963285e-12</v>
       </c>
       <c r="C2">
-        <v>0.038219377622217214</v>
+        <v>0.32304103913268079</v>
       </c>
       <c r="D2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963261e-12</v>
       </c>
       <c r="E2">
-        <v>0.03821937762221711</v>
+        <v>1.1838595307963261e-12</v>
       </c>
       <c r="F2">
-        <v>0.03821937762221711</v>
+        <v>1.1838595307963261e-12</v>
       </c>
       <c r="G2">
-        <v>0.03821937762221711</v>
+        <v>1.1838595307963275e-12</v>
       </c>
       <c r="H2">
-        <v>0.03821937762221711</v>
+        <v>1.1838595307963275e-12</v>
       </c>
       <c r="I2">
-        <v>0.03821937762221711</v>
+        <v>1.1838595307963275e-12</v>
       </c>
       <c r="J2">
-        <v>0.03821937762221711</v>
+        <v>1.1838595307963275e-12</v>
       </c>
       <c r="K2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963255e-12</v>
       </c>
       <c r="L2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963255e-12</v>
       </c>
       <c r="M2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963255e-12</v>
       </c>
       <c r="N2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963255e-12</v>
       </c>
       <c r="O2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963255e-12</v>
       </c>
       <c r="P2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963255e-12</v>
       </c>
       <c r="Q2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963255e-12</v>
       </c>
       <c r="R2">
-        <v>0.038219377622217138</v>
+        <v>1.1838595307963255e-12</v>
       </c>
       <c r="S2">
-        <v>0.038219377622217124</v>
+        <v>1.1838595307963283e-12</v>
       </c>
       <c r="T2">
-        <v>0.038219377622217124</v>
+        <v>1.1838595307963283e-12</v>
       </c>
       <c r="U2">
-        <v>0.038219377622217124</v>
+        <v>1.1838595307963283e-12</v>
       </c>
       <c r="V2">
-        <v>0.038219377622217124</v>
+        <v>1.1838595307963283e-12</v>
       </c>
       <c r="W2">
-        <v>0.071239317293722709</v>
+        <v>0.32304103913268073</v>
       </c>
       <c r="X2">
-        <v>0.087934375017500038</v>
+        <v>0.35391792170977743</v>
       </c>
       <c r="Y2">
-        <v>0.038219377622217124</v>
+        <v>1.1838595307963283e-12</v>
       </c>
       <c r="Z2">
         <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -420,7 +424,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
